--- a/biology/Zoologie/Hibou_moyen-duc/Hibou_moyen-duc.xlsx
+++ b/biology/Zoologie/Hibou_moyen-duc/Hibou_moyen-duc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Asio otus
 Le Hibou moyen-duc[a] (Asio otus) est une espèce de rapaces nocturnes de la famille des strigidés, peuplant l'Europe, l'Asie et l'Amérique du Nord.
@@ -512,14 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Avec ses 35 cm de long environ, le moyen-duc est légèrement plus petit et plus menu que la Chouette hulotte. Sa tête est surmontée de deux grandes aigrettes souvent dressées : on dit qu'il « fronce les sourcils » ; elles sont effectivement couchées quand le hibou est serein. Ses yeux jaune-orangé sont au centre d'un disque facial arrondi beige-roux.
 Il a une longueur de 31 à 37 cm, un poids de 250 g pour les mâles ou de 300 g les femelles. Son envergure est de 86 à 98 cm.
-Cri
-À la saison des amours, un « hou hou hou hou » audible au loin, et aussi des bruits presque sifflants. Il met en garde par un « wupp wupp ».
-Plumage
-Le Hibou moyen-duc a généralement un plumage tacheté de brun et rayé de noir, blanc et gris. La femelle est plus foncée. Le dessous est plus clair. Les jeunes ont aspect duveteux, brun-gris, avec des disques faciaux en grande partie noirâtre. 
 </t>
         </is>
       </c>
@@ -545,16 +555,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Comportement</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Alimentation et chasse
-Affectionnant principalement les petits mammifères (surtout des campagnols à 78 % et des mulots à 15 %), mais aussi les passereaux (moineaux, pinsons), ainsi que des reptiles, des poissons et des insectes (coléoptères...)[réf. souhaitée], il chasse dès la tombée de la nuit. De jour, il se cache dans les branchages épais où il se tient immobile, se fondant ainsi dans le décor grâce à son plumage à l'aspect d'écorce dont le dessus est brun-roux marbré de brun foncé, parfaite tenue de camouflage.
-Reproduction
-Vers mars-avril, il recherche un nid abandonné d'écureuil roux, de pie ou de corneille après l'avoir remis légèrement en état et s'y installe. La femelle y dépose quatre à six œufs d'un blanc parfait qu'elle couve seule pendant 28 jours. Elle commence à couver dès le premier œuf pondu, de sorte que les petits éclosent progressivement. Pendant ce temps, le mâle la nourrit puis, après l'éclosion, nourrit toute la famille en remettant ses proies à la femelle qui se charge de la distribution. Les jeunes hiboux quittent le nid au bout de 21 à 26 jours, même s'ils sont encore couvert de duvet. Les jeunes Hiboux moyen-duc sont semi-nidicole. 
-Dimensions de l'œuf : 35,0 à 44,7 mm × 28,0 à 34,5 mm.</t>
+          <t>Cri</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À la saison des amours, un « hou hou hou hou » audible au loin, et aussi des bruits presque sifflants. Il met en garde par un « wupp wupp ».
+</t>
         </is>
       </c>
     </row>
@@ -579,16 +592,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Répartition et habitat</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Répartition
-C'est un oiseau très répandu ; il habite toute l'Europe à l'exception du Grand Nord. En France, il est commun mais il est absent de Corse, du Sud-Ouest et de certaines zones de l'Ouest.
-Habitat
-Il fréquente surtout les endroits semi-boisés de conifères, les bosquets dispersés dans les campagnes, mais aussi les parcs. Il choisit un ancien nid, de rapace, d'écureuil, de pie ou de corneille. 
-Le Hibou moyen-duc est surtout sédentaire, toutefois, certains spécimens originaires du nord de l'Europe migrent vers le sud de septembre à novembre et retournent sur leurs sites de nidifications de février à avril. 
+          <t>Plumage</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Hibou moyen-duc a généralement un plumage tacheté de brun et rayé de noir, blanc et gris. La femelle est plus foncée. Le dessous est plus clair. Les jeunes ont aspect duveteux, brun-gris, avec des disques faciaux en grande partie noirâtre. 
 </t>
         </is>
       </c>
@@ -614,12 +629,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Statut de conservation</t>
+          <t>Comportement</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les populations sont fluctuantes, pour la plupart présentes toute l'année, mais de petites troupes vagabondes venues du Nord rejoignent les sédentaires en hiver.
+          <t>Alimentation et chasse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Affectionnant principalement les petits mammifères (surtout des campagnols à 78 % et des mulots à 15 %), mais aussi les passereaux (moineaux, pinsons), ainsi que des reptiles, des poissons et des insectes (coléoptères...)[réf. souhaitée], il chasse dès la tombée de la nuit. De jour, il se cache dans les branchages épais où il se tient immobile, se fondant ainsi dans le décor grâce à son plumage à l'aspect d'écorce dont le dessus est brun-roux marbré de brun foncé, parfaite tenue de camouflage.
 </t>
         </is>
       </c>
@@ -645,13 +666,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Protection</t>
+          <t>Comportement</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le Hibou moyen-duc bénéficie d'une protection totale sur le territoire français depuis l'arrêté ministériel du 17 avril 1981 relatif aux oiseaux protégés sur l'ensemble du territoire[4]. Il est donc interdit de le détruire, de le mutiler, de le capturer ou de l'enlever, de le perturber intentionnellement ou de le naturaliser, ainsi que de détruire ou d'enlever les œufs et les nids et de détruire, altérer ou dégrader leur milieu. Qu'il soit vivant ou mort, il est aussi interdit de le transporter, de le colporter, de l'utiliser, de le détenir, de le vendre ou de l'acheter.
-</t>
+          <t>Reproduction</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Vers mars-avril, il recherche un nid abandonné d'écureuil roux, de pie ou de corneille après l'avoir remis légèrement en état et s'y installe. La femelle y dépose quatre à six œufs d'un blanc parfait qu'elle couve seule pendant 28 jours. Elle commence à couver dès le premier œuf pondu, de sorte que les petits éclosent progressivement. Pendant ce temps, le mâle la nourrit puis, après l'éclosion, nourrit toute la famille en remettant ses proies à la femelle qui se charge de la distribution. Les jeunes hiboux quittent le nid au bout de 21 à 26 jours, même s'ils sont encore couvert de duvet. Les jeunes Hiboux moyen-duc sont semi-nidicole. 
+Dimensions de l'œuf : 35,0 à 44,7 mm × 28,0 à 34,5 mm.</t>
         </is>
       </c>
     </row>
@@ -676,44 +703,189 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Répartition et habitat</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un oiseau très répandu ; il habite toute l'Europe à l'exception du Grand Nord. En France, il est commun mais il est absent de Corse, du Sud-Ouest et de certaines zones de l'Ouest.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hibou_moyen-duc</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hibou_moyen-duc</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Répartition et habitat</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il fréquente surtout les endroits semi-boisés de conifères, les bosquets dispersés dans les campagnes, mais aussi les parcs. Il choisit un ancien nid, de rapace, d'écureuil, de pie ou de corneille. 
+Le Hibou moyen-duc est surtout sédentaire, toutefois, certains spécimens originaires du nord de l'Europe migrent vers le sud de septembre à novembre et retournent sur leurs sites de nidifications de février à avril. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hibou_moyen-duc</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hibou_moyen-duc</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Statut de conservation</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les populations sont fluctuantes, pour la plupart présentes toute l'année, mais de petites troupes vagabondes venues du Nord rejoignent les sédentaires en hiver.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Hibou_moyen-duc</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hibou_moyen-duc</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Hibou moyen-duc bénéficie d'une protection totale sur le territoire français depuis l'arrêté ministériel du 17 avril 1981 relatif aux oiseaux protégés sur l'ensemble du territoire. Il est donc interdit de le détruire, de le mutiler, de le capturer ou de l'enlever, de le perturber intentionnellement ou de le naturaliser, ainsi que de détruire ou d'enlever les œufs et les nids et de détruire, altérer ou dégrader leur milieu. Qu'il soit vivant ou mort, il est aussi interdit de le transporter, de le colporter, de l'utiliser, de le détenir, de le vendre ou de l'acheter.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Hibou_moyen-duc</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hibou_moyen-duc</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Menaces</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Le Hibou-moyen-duc est principalement menacé par : 
 la modification des espaces naturels : retournement des prairies en faveur d’une agriculture plus intensive, suppression des zones enherbées qui sont leur lieu de chasse ;
 la destruction des éléments fixes du paysage : suppression des haies, des boisements et des arbres isolés ;
 la diminution des ressources alimentaires : élimination de micro-mammifères par l’emploi de produits rodenticides ;
-le réseau électrique et routier : risques d’électrocution sur les lignes électriques et de collision avec les véhicules routiers[5].</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Hibou_moyen-duc</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Hibou_moyen-duc</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+le réseau électrique et routier : risques d’électrocution sur les lignes électriques et de collision avec les véhicules routiers.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Hibou_moyen-duc</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hibou_moyen-duc</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Philatélie</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">Des Hiboux moyens-ducs sont représentés sur des timbres des pays suivants : Tchécoslovaquie (1986), Pologne (1990), Bulgarie (1992), Chine (1995), Belgique (1999 et 2007), URSS (1990)
 </t>
